--- a/study bug reporting, improvements results/outputs/bugs_Webpage.xlsx
+++ b/study bug reporting, improvements results/outputs/bugs_Webpage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>feedback_critic</t>
+  </si>
+  <si>
+    <t>bug_browser_used_additional</t>
   </si>
   <si>
     <t>2</t>
@@ -220,374 +223,404 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>2.0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>3.0</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>4.0</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>7.0</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>8.0</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>9.0</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>10.0</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>11.0</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>13.0</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/study bug reporting, improvements results/outputs/bugs_Webpage.xlsx
+++ b/study bug reporting, improvements results/outputs/bugs_Webpage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -53,31 +53,31 @@
     <t>bug_browser_used_additional</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>13</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>bug</t>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Safari</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>Mac/iOS</t>
@@ -232,7 +229,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -253,22 +250,22 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -276,7 +273,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -297,22 +294,22 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -320,7 +317,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -341,22 +338,22 @@
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -364,7 +361,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -385,22 +382,22 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +405,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -429,22 +426,22 @@
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -452,7 +449,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -473,22 +470,22 @@
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +493,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -517,22 +514,22 @@
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -540,7 +537,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -561,22 +558,22 @@
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -584,7 +581,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -605,22 +602,22 @@
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
